--- a/Exports por Mercado.xlsx
+++ b/Exports por Mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dec10f1d7ee9070f/Documentos/Education/TFM/GOLDEN DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7DC3043D-1B74-47D0-A310-9BD1A50D29CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417EE694-D0D0-4FD8-9D0E-9883D138BD17}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7DC3043D-1B74-47D0-A310-9BD1A50D29CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D119F025-4F3A-4782-8930-634631C86B25}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -194,7 +195,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +206,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -253,6 +260,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31224,8 +31239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D74C5F-D95D-48DE-B6A3-4F63D5522E0B}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32859,11 +32874,11 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A117" s="3">
+      <c r="A117" s="12">
         <v>44743</v>
       </c>
-      <c r="B117">
-        <v>104922</v>
+      <c r="B117" s="13">
+        <v>55435.618820648742</v>
       </c>
       <c r="C117">
         <v>39246</v>
@@ -32943,11 +32958,11 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" s="3">
+      <c r="A123" s="12">
         <v>44927</v>
       </c>
-      <c r="B123">
-        <v>117212</v>
+      <c r="B123" s="13">
+        <v>59023.902125314547</v>
       </c>
       <c r="C123">
         <v>32966</v>

--- a/Exports por Mercado.xlsx
+++ b/Exports por Mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dec10f1d7ee9070f/Documentos/Education/TFM/GOLDEN DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7DC3043D-1B74-47D0-A310-9BD1A50D29CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D119F025-4F3A-4782-8930-634631C86B25}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7DC3043D-1B74-47D0-A310-9BD1A50D29CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4005E52-24D7-4734-80D1-E9CABD0C1B55}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -264,6 +264,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31239,8 +31240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D74C5F-D95D-48DE-B6A3-4F63D5522E0B}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32429,8 +32430,8 @@
       <c r="A85" s="3">
         <v>43770</v>
       </c>
-      <c r="B85">
-        <v>92608</v>
+      <c r="B85" s="14">
+        <v>45772.836441496635</v>
       </c>
       <c r="C85">
         <v>11412</v>
